--- a/project_demoblaze.xlsx
+++ b/project_demoblaze.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="536" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HLR_demoblaze" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="DEFECTREPORT_DEMOBLAZE" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEST_CASE_Demoblaze!$A$1:$A$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEST_CASE_Demoblaze!$A$1:$I$58</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="264">
   <si>
     <t>FUNCTION_ID</t>
   </si>
@@ -754,6 +754,72 @@
   </si>
   <si>
     <t>Low</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kk7SsyKVTS9JnceOrHpBqHt-uhVF8Apd/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1I7qNyc3k77SqNBn6hZgLskWix8ZzbphM/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YqXgAbRjyS3eHVh8bPey0AbFTcDAN2Cw/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>enter valid username and vaild password and click on the cloes button</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1J62JO6wXzRLnqoW-JStIEerKLi8nf8hP/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>1)name:xyz1234   2)password:xyz1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop windows show the wrong message  and make confusion. </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12aAP8rNBYNJoqwt-dlDBhpkSZxn9w3hW/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>enter valid username and valid password and click on the cloes button</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_92Dd-s_yg2QwkRSlndLFIepa9G5VspX/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>the area of pointer cover is large to slide of image</t>
+  </si>
+  <si>
+    <t>ui,javascript</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-zK8HSFp2rjEPrRd4u1kzsTsd8T9k2wF/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the pointer cover the large ara from left slide to slding </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XDa__TsjR8hXNMlTcP7DNOP8f0DY3NCH/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>when we move cursor on  categories lable that it changes and refresh the home page</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1y9vJomieRiOrVi7fJXIVC1jrfZinEMOQ/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1k21xrhc-9db-ZLV8sDlt_uLHsxhdOKc2/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>the gap is present between two line is more</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uz6-_tqwVFr44SwsIYtF9hZX504hfQqG/view?usp=share_link</t>
   </si>
 </sst>
 </file>
@@ -865,7 +931,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -889,47 +955,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -937,59 +962,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1002,7 +975,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1052,169 +1025,151 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1518,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1566,7 +1521,7 @@
       <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1580,7 +1535,7 @@
       <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1594,7 +1549,7 @@
       <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="20" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1608,7 +1563,7 @@
       <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1634,7 +1589,7 @@
       <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="20" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1648,7 +1603,7 @@
       <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1662,7 +1617,7 @@
       <c r="C10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1676,7 +1631,7 @@
       <c r="C11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="21" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1810,21 +1765,21 @@
       <c r="C22" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="24" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30">
-      <c r="A23" s="45">
+      <c r="A23" s="22">
         <v>17</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" ht="30">
       <c r="A24" s="6">
@@ -1839,369 +1794,369 @@
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="6"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="6"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="6"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="6"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="45"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="6"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
+      <c r="A65" s="43"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="6"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
+      <c r="A67" s="43"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="6"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
+      <c r="A69" s="43"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="6"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
+      <c r="A70" s="43"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="6"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="6"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="6"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="6"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="6"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="6"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="6"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
+      <c r="A79" s="43"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="6"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="45"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="6"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="45"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="6"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="45"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="6"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="6"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="45"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="6"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="45"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="6"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="45"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="6"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="45"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="6"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="45"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="6"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="45"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="6"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="6"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="45"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="6"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="45"/>
+      <c r="C92" s="45"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="6"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
+      <c r="A93" s="43"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="45"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="6"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="45"/>
+      <c r="C94" s="45"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="6"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
+      <c r="A95" s="43"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="45"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="6"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="45"/>
+      <c r="C96" s="45"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="6"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
+      <c r="A97" s="43"/>
+      <c r="B97" s="45"/>
+      <c r="C97" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2214,8 +2169,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2340,356 +2295,356 @@
       <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" hidden="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="27" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" hidden="1">
-      <c r="A9" s="25">
+      <c r="A9" s="28">
         <v>1</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="28">
         <v>1</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="37"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" ht="45" hidden="1">
-      <c r="A10" s="25">
+      <c r="A10" s="28">
         <v>2</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="28">
         <v>2</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="45" hidden="1">
-      <c r="A11" s="25">
+      <c r="A11" s="28">
         <v>3</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="28">
         <v>3</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="120" hidden="1">
-      <c r="A12" s="70">
+    <row r="12" spans="1:9" ht="120">
+      <c r="A12" s="29">
         <v>4</v>
       </c>
-      <c r="B12" s="58">
+      <c r="B12" s="29">
         <v>4</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="120" hidden="1">
-      <c r="A13" s="70">
+    <row r="13" spans="1:9" ht="120">
+      <c r="A13" s="29">
         <v>5</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="31">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="120" hidden="1">
-      <c r="A14" s="70">
+    <row r="14" spans="1:9" ht="120">
+      <c r="A14" s="29">
         <v>6</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="31">
         <v>4.2</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="120" hidden="1">
-      <c r="A15" s="70">
+    <row r="15" spans="1:9" ht="120">
+      <c r="A15" s="29">
         <v>7</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="31">
         <v>4.3</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" hidden="1">
-      <c r="A16" s="25">
+      <c r="A16" s="28">
         <v>8</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="32">
         <v>5</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="I16" s="33" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="60" hidden="1">
-      <c r="A17" s="25">
+      <c r="A17" s="28">
         <v>9</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="28">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="45" hidden="1">
-      <c r="A18" s="70">
+    <row r="18" spans="1:9" ht="45">
+      <c r="A18" s="29">
         <v>10</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="31">
         <v>5.2</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="60" hidden="1">
-      <c r="A19" s="25">
+      <c r="A19" s="28">
         <v>11</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="28">
         <v>5.3</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="60">
-      <c r="A20" s="25">
+    <row r="20" spans="1:9" ht="60" hidden="1">
+      <c r="A20" s="28">
         <v>12</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="34">
         <v>6</v>
       </c>
       <c r="C20" s="35" t="s">
@@ -2714,40 +2669,40 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" hidden="1">
-      <c r="A21" s="70">
+    <row r="21" spans="1:9" ht="30">
+      <c r="A21" s="29">
         <v>13</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="31">
         <v>6.1</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="17" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" hidden="1">
-      <c r="A22" s="25">
+      <c r="A22" s="28">
         <v>14</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="34">
         <v>6.2</v>
       </c>
       <c r="C22" s="35" t="s">
@@ -2773,10 +2728,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" hidden="1">
-      <c r="A23" s="25">
+      <c r="A23" s="28">
         <v>15</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="34">
         <v>6.3</v>
       </c>
       <c r="C23" s="35" t="s">
@@ -2797,1121 +2752,1124 @@
       <c r="H23" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="34"/>
-    </row>
-    <row r="24" spans="1:9" ht="30" hidden="1">
-      <c r="A24" s="25">
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:9" ht="90" hidden="1">
+      <c r="A24" s="28">
         <v>16</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="28">
         <v>6.2</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:9" ht="90">
+      <c r="A25" s="29">
+        <v>17</v>
+      </c>
+      <c r="B25" s="29">
+        <v>6.3</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="90" hidden="1">
+      <c r="A26" s="28">
+        <v>18</v>
+      </c>
+      <c r="B26" s="28">
+        <v>6.4</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="37"/>
+    </row>
+    <row r="27" spans="1:9" ht="105">
+      <c r="A27" s="29">
+        <v>19</v>
+      </c>
+      <c r="B27" s="31">
+        <v>6.5</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="150" hidden="1">
+      <c r="A28" s="28">
+        <v>20</v>
+      </c>
+      <c r="B28" s="28">
+        <v>6.6</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="75" hidden="1">
+      <c r="A29" s="28">
+        <v>21</v>
+      </c>
+      <c r="B29" s="28">
+        <v>7</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="75" hidden="1">
+      <c r="A30" s="28">
+        <v>22</v>
+      </c>
+      <c r="B30" s="28">
+        <v>7.1</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="60" hidden="1">
+      <c r="A31" s="28">
+        <v>23</v>
+      </c>
+      <c r="B31" s="28">
+        <v>7.2</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="75" hidden="1">
+      <c r="A32" s="28">
+        <v>24</v>
+      </c>
+      <c r="B32" s="28">
+        <v>7.3</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="60" hidden="1">
+      <c r="A33" s="28">
+        <v>25</v>
+      </c>
+      <c r="B33" s="28">
+        <v>7.4</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="60" hidden="1">
+      <c r="A34" s="28">
+        <v>26</v>
+      </c>
+      <c r="B34" s="28">
+        <v>7.5</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="60">
+      <c r="A35" s="29">
+        <v>27</v>
+      </c>
+      <c r="B35" s="29">
+        <v>7.6</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="75" hidden="1">
+      <c r="A36" s="28">
+        <v>28</v>
+      </c>
+      <c r="B36" s="28">
+        <v>8</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="75" hidden="1">
+      <c r="A37" s="28">
+        <v>29</v>
+      </c>
+      <c r="B37" s="28">
+        <v>8.1</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="60" hidden="1">
+      <c r="A38" s="28">
+        <v>30</v>
+      </c>
+      <c r="B38" s="28">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="75" hidden="1">
+      <c r="A39" s="28">
+        <v>31</v>
+      </c>
+      <c r="B39" s="28">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="60" hidden="1">
+      <c r="A40" s="28">
+        <v>32</v>
+      </c>
+      <c r="B40" s="28">
+        <v>8.4</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="75">
+      <c r="A41" s="29">
+        <v>33</v>
+      </c>
+      <c r="B41" s="31">
+        <v>8.5</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I41" s="39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="60">
+      <c r="A42" s="31">
+        <v>34</v>
+      </c>
+      <c r="B42" s="31">
+        <v>8.6</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I42" s="39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="30">
+      <c r="A43" s="29">
+        <v>35</v>
+      </c>
+      <c r="B43" s="31">
+        <v>9</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" s="37" t="s">
+      <c r="F43" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="H43" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I43" s="38"/>
+    </row>
+    <row r="44" spans="1:9" ht="30">
+      <c r="A44" s="29">
+        <v>36</v>
+      </c>
+      <c r="B44" s="31">
+        <v>9.1</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="G44" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I44" s="38"/>
+    </row>
+    <row r="45" spans="1:9" ht="60">
+      <c r="A45" s="29">
+        <v>37</v>
+      </c>
+      <c r="B45" s="31">
+        <v>10</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="I45" s="38"/>
+    </row>
+    <row r="46" spans="1:9" ht="45" hidden="1">
+      <c r="A46" s="28">
+        <v>38</v>
+      </c>
+      <c r="B46" s="28">
+        <v>10.1</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G46" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="H46" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="37"/>
-    </row>
-    <row r="25" spans="1:9" ht="90" hidden="1">
-      <c r="A25" s="25">
+      <c r="I46" s="37"/>
+    </row>
+    <row r="47" spans="1:9" ht="45" hidden="1">
+      <c r="A47" s="28">
+        <v>39</v>
+      </c>
+      <c r="B47" s="28">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I47" s="37"/>
+    </row>
+    <row r="48" spans="1:9" ht="45" hidden="1">
+      <c r="A48" s="28">
+        <v>40</v>
+      </c>
+      <c r="B48" s="28">
+        <v>10.3</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G48" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48" s="37"/>
+    </row>
+    <row r="49" spans="1:9" ht="75" hidden="1">
+      <c r="A49" s="28">
+        <v>41</v>
+      </c>
+      <c r="B49" s="28">
+        <v>11</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G49" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H49" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I49" s="37"/>
+    </row>
+    <row r="50" spans="1:9" ht="30" hidden="1">
+      <c r="A50" s="28">
+        <v>42</v>
+      </c>
+      <c r="B50" s="28">
+        <v>11.1</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G50" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I50" s="37"/>
+    </row>
+    <row r="51" spans="1:9" ht="45" hidden="1">
+      <c r="A51" s="28">
+        <v>43</v>
+      </c>
+      <c r="B51" s="28">
+        <v>12</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="H51" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="30">
+      <c r="A52" s="29">
+        <v>44</v>
+      </c>
+      <c r="B52" s="31">
+        <v>13</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="G52" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="H52" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I52" s="39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="30" hidden="1">
+      <c r="A53" s="28">
+        <v>45</v>
+      </c>
+      <c r="B53" s="34">
+        <v>13.1</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="G53" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="H53" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="I53" s="41"/>
+    </row>
+    <row r="54" spans="1:9" hidden="1">
+      <c r="A54" s="28">
+        <v>46</v>
+      </c>
+      <c r="B54" s="28">
+        <v>14</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="G54" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H54" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I54" s="37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1">
+      <c r="A55" s="28">
+        <v>47</v>
+      </c>
+      <c r="B55" s="6">
+        <v>15</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="D55" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E55" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="G55" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="H55" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55" s="42"/>
+    </row>
+    <row r="56" spans="1:9" ht="30">
+      <c r="A56" s="29">
+        <v>48</v>
+      </c>
+      <c r="B56" s="12">
+        <v>16</v>
+      </c>
+      <c r="C56" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="E56" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="G56" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="H56" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="30" hidden="1">
+      <c r="A57" s="28">
+        <v>49</v>
+      </c>
+      <c r="B57" s="6">
         <v>17</v>
       </c>
-      <c r="B25" s="36">
-        <v>6.3</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="40" t="s">
+      <c r="C57" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E57" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="G57" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="40" t="s">
+      <c r="H57" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="90" hidden="1">
-      <c r="A26" s="25">
+      <c r="I57" s="42"/>
+    </row>
+    <row r="58" spans="1:9" hidden="1">
+      <c r="A58" s="28">
+        <v>50</v>
+      </c>
+      <c r="B58" s="6">
         <v>18</v>
       </c>
-      <c r="B26" s="36">
-        <v>6.4</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="G26" s="38" t="s">
+      <c r="C58" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="D58" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E58" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="G58" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="40" t="s">
+      <c r="H58" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="40"/>
-    </row>
-    <row r="27" spans="1:9" ht="105" hidden="1">
-      <c r="A27" s="70">
-        <v>19</v>
-      </c>
-      <c r="B27" s="26">
-        <v>6.5</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="150" hidden="1">
-      <c r="A28" s="25">
-        <v>20</v>
-      </c>
-      <c r="B28" s="36">
-        <v>6.6</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I28" s="38" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="75" hidden="1">
-      <c r="A29" s="25">
-        <v>21</v>
-      </c>
-      <c r="B29" s="36">
-        <v>7</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I29" s="38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="75" hidden="1">
-      <c r="A30" s="25">
-        <v>22</v>
-      </c>
-      <c r="B30" s="36">
-        <v>7.1</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="G30" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I30" s="38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="60" hidden="1">
-      <c r="A31" s="25">
-        <v>23</v>
-      </c>
-      <c r="B31" s="36">
-        <v>7.2</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="G31" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I31" s="38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="75" hidden="1">
-      <c r="A32" s="25">
-        <v>24</v>
-      </c>
-      <c r="B32" s="36">
-        <v>7.3</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H32" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I32" s="38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="60" hidden="1">
-      <c r="A33" s="25">
-        <v>25</v>
-      </c>
-      <c r="B33" s="36">
-        <v>7.4</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I33" s="38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="60" hidden="1">
-      <c r="A34" s="25">
-        <v>26</v>
-      </c>
-      <c r="B34" s="36">
-        <v>7.5</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="F34" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="G34" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I34" s="38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="45" hidden="1">
-      <c r="A35" s="25">
-        <v>27</v>
-      </c>
-      <c r="B35" s="36">
-        <v>7.6</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="G35" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H35" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I35" s="38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="75" hidden="1">
-      <c r="A36" s="25">
-        <v>28</v>
-      </c>
-      <c r="B36" s="36">
-        <v>8</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="F36" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="G36" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H36" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I36" s="38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="75" hidden="1">
-      <c r="A37" s="25">
-        <v>29</v>
-      </c>
-      <c r="B37" s="36">
-        <v>8.1</v>
-      </c>
-      <c r="C37" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="G37" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H37" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I37" s="38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="60" hidden="1">
-      <c r="A38" s="25">
-        <v>30</v>
-      </c>
-      <c r="B38" s="36">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="D38" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I38" s="38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="75" hidden="1">
-      <c r="A39" s="25">
-        <v>31</v>
-      </c>
-      <c r="B39" s="36">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="G39" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H39" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I39" s="38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="60" hidden="1">
-      <c r="A40" s="25">
-        <v>32</v>
-      </c>
-      <c r="B40" s="36">
-        <v>8.4</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H40" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I40" s="38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="75" hidden="1">
-      <c r="A41" s="70">
-        <v>33</v>
-      </c>
-      <c r="B41" s="26">
-        <v>8.5</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="H41" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I41" s="29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="60" hidden="1">
-      <c r="A42" s="25">
-        <v>34</v>
-      </c>
-      <c r="B42" s="36">
-        <v>8.6</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="D42" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="F42" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="G42" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H42" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I42" s="38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="30" hidden="1">
-      <c r="A43" s="70">
-        <v>35</v>
-      </c>
-      <c r="B43" s="26">
-        <v>9</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="G43" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="H43" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I43" s="28"/>
-    </row>
-    <row r="44" spans="1:9" ht="30" hidden="1">
-      <c r="A44" s="70">
-        <v>36</v>
-      </c>
-      <c r="B44" s="26">
-        <v>9.1</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="G44" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="H44" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I44" s="28"/>
-    </row>
-    <row r="45" spans="1:9" ht="60" hidden="1">
-      <c r="A45" s="70">
-        <v>37</v>
-      </c>
-      <c r="B45" s="26">
-        <v>10</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="G45" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H45" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="I45" s="28"/>
-    </row>
-    <row r="46" spans="1:9" ht="45" hidden="1">
-      <c r="A46" s="25">
-        <v>38</v>
-      </c>
-      <c r="B46" s="36">
-        <v>10.1</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="E46" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="G46" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I46" s="40"/>
-    </row>
-    <row r="47" spans="1:9" ht="45" hidden="1">
-      <c r="A47" s="25">
-        <v>39</v>
-      </c>
-      <c r="B47" s="36">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="E47" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="G47" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H47" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I47" s="40"/>
-    </row>
-    <row r="48" spans="1:9" ht="45" hidden="1">
-      <c r="A48" s="25">
-        <v>40</v>
-      </c>
-      <c r="B48" s="36">
-        <v>10.3</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="G48" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H48" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I48" s="40"/>
-    </row>
-    <row r="49" spans="1:9" ht="75" hidden="1">
-      <c r="A49" s="25">
-        <v>41</v>
-      </c>
-      <c r="B49" s="36">
-        <v>11</v>
-      </c>
-      <c r="C49" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E49" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F49" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="G49" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H49" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I49" s="40"/>
-    </row>
-    <row r="50" spans="1:9" ht="30" hidden="1">
-      <c r="A50" s="25">
-        <v>42</v>
-      </c>
-      <c r="B50" s="36">
-        <v>11.1</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E50" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G50" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H50" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I50" s="40"/>
-    </row>
-    <row r="51" spans="1:9" ht="45" hidden="1">
-      <c r="A51" s="25">
-        <v>43</v>
-      </c>
-      <c r="B51" s="36">
-        <v>12</v>
-      </c>
-      <c r="C51" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="D51" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F51" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="G51" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="H51" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I51" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="30" hidden="1">
-      <c r="A52" s="70">
-        <v>44</v>
-      </c>
-      <c r="B52" s="26">
-        <v>13</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="G52" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="H52" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I52" s="29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="30" hidden="1">
-      <c r="A53" s="25">
-        <v>45</v>
-      </c>
-      <c r="B53" s="31">
-        <v>13.1</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="F53" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="G53" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="H53" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="I53" s="33"/>
-    </row>
-    <row r="54" spans="1:9" hidden="1">
-      <c r="A54" s="25">
-        <v>46</v>
-      </c>
-      <c r="B54" s="36">
-        <v>14</v>
-      </c>
-      <c r="C54" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="D54" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="E54" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="G54" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H54" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I54" s="40" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" hidden="1">
-      <c r="A55" s="25">
-        <v>47</v>
-      </c>
-      <c r="B55" s="22">
-        <v>15</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H55" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I55" s="18"/>
-    </row>
-    <row r="56" spans="1:9" ht="30" hidden="1">
-      <c r="A56" s="25">
-        <v>48</v>
-      </c>
-      <c r="B56" s="22">
-        <v>16</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H56" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I56" s="21" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="30" hidden="1">
-      <c r="A57" s="25">
-        <v>49</v>
-      </c>
-      <c r="B57" s="22">
-        <v>17</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F57" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H57" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I57" s="18"/>
-    </row>
-    <row r="58" spans="1:9" hidden="1">
-      <c r="A58" s="25">
-        <v>50</v>
-      </c>
-      <c r="B58" s="22">
-        <v>18</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F58" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H58" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I58" s="18"/>
-    </row>
-    <row r="59" spans="1:9" hidden="1">
-      <c r="A59" s="17"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-    </row>
-    <row r="60" spans="1:9" hidden="1">
-      <c r="A60" s="17"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-    </row>
-    <row r="61" spans="1:9" hidden="1">
-      <c r="A61" s="17"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-    </row>
-    <row r="62" spans="1:9" hidden="1">
-      <c r="A62" s="17"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-    </row>
-    <row r="63" spans="1:9" hidden="1">
-      <c r="A63" s="17"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-    </row>
-    <row r="64" spans="1:9" hidden="1">
-      <c r="A64" s="17"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-    </row>
-    <row r="65" spans="1:9" hidden="1">
-      <c r="A65" s="17"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-    </row>
-    <row r="66" spans="1:9" hidden="1">
-      <c r="A66" s="17"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-    </row>
-    <row r="67" spans="1:9" hidden="1">
-      <c r="A67" s="17"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-    </row>
-    <row r="68" spans="1:9" hidden="1">
-      <c r="A68" s="17"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-    </row>
-    <row r="69" spans="1:9" hidden="1">
-      <c r="A69" s="17"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
+      <c r="I58" s="42"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="43"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="43"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="43"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="43"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44">
+        <f>COUNT(H52-H12)</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="44"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="43"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="43"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="43"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="43"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="43"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="43"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="43"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A69">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:I58">
+    <filterColumn colId="7">
       <filters>
-        <filter val="12"/>
+        <filter val="fail"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3922,572 +3880,2090 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:PT17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="90.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.5703125" customWidth="1"/>
+    <col min="13" max="13" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="53.42578125" customWidth="1"/>
+    <col min="15" max="15" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="15.75">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:436" s="4" customFormat="1" ht="15.75">
+      <c r="A1" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="N1" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="57" t="s">
+      <c r="O1" s="46" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="60" customFormat="1" ht="75">
-      <c r="A2" s="49">
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="44"/>
+      <c r="BA1" s="44"/>
+      <c r="BB1" s="44"/>
+      <c r="BC1" s="44"/>
+      <c r="BD1" s="44"/>
+      <c r="BE1" s="44"/>
+      <c r="BF1" s="44"/>
+      <c r="BG1" s="44"/>
+      <c r="BH1" s="44"/>
+      <c r="BI1" s="44"/>
+      <c r="BJ1" s="44"/>
+      <c r="BK1" s="44"/>
+      <c r="BL1" s="44"/>
+      <c r="BM1" s="44"/>
+      <c r="BN1" s="44"/>
+      <c r="BO1" s="44"/>
+      <c r="BP1" s="44"/>
+      <c r="BQ1" s="44"/>
+      <c r="BR1" s="44"/>
+      <c r="BS1" s="44"/>
+      <c r="BT1" s="44"/>
+      <c r="BU1" s="44"/>
+      <c r="BV1" s="44"/>
+      <c r="BW1" s="44"/>
+      <c r="BX1" s="44"/>
+      <c r="BY1" s="44"/>
+      <c r="BZ1" s="44"/>
+      <c r="CA1" s="44"/>
+      <c r="CB1" s="44"/>
+      <c r="CC1" s="44"/>
+      <c r="CD1" s="44"/>
+      <c r="CE1" s="44"/>
+      <c r="CF1" s="44"/>
+      <c r="CG1" s="44"/>
+      <c r="CH1" s="44"/>
+      <c r="CI1" s="44"/>
+      <c r="CJ1" s="44"/>
+      <c r="CK1" s="44"/>
+      <c r="CL1" s="44"/>
+      <c r="CM1" s="44"/>
+      <c r="CN1" s="44"/>
+      <c r="CO1" s="44"/>
+      <c r="CP1" s="44"/>
+      <c r="CQ1" s="44"/>
+      <c r="CR1" s="44"/>
+      <c r="CS1" s="44"/>
+      <c r="CT1" s="44"/>
+      <c r="CU1" s="44"/>
+      <c r="CV1" s="44"/>
+      <c r="CW1" s="44"/>
+      <c r="CX1" s="44"/>
+      <c r="CY1" s="44"/>
+      <c r="CZ1" s="44"/>
+      <c r="DA1" s="44"/>
+      <c r="DB1" s="44"/>
+      <c r="DC1" s="44"/>
+      <c r="DD1" s="44"/>
+      <c r="DE1" s="44"/>
+      <c r="DF1" s="44"/>
+      <c r="DG1" s="44"/>
+      <c r="DH1" s="44"/>
+      <c r="DI1" s="44"/>
+      <c r="DJ1" s="44"/>
+      <c r="DK1" s="44"/>
+      <c r="DL1" s="44"/>
+      <c r="DM1" s="44"/>
+      <c r="DN1" s="44"/>
+      <c r="DO1" s="44"/>
+      <c r="DP1" s="44"/>
+      <c r="DQ1" s="44"/>
+      <c r="DR1" s="67"/>
+      <c r="DS1" s="42"/>
+      <c r="DT1" s="42"/>
+      <c r="DU1" s="42"/>
+      <c r="DV1" s="42"/>
+      <c r="DW1" s="42"/>
+      <c r="DX1" s="42"/>
+      <c r="DY1" s="42"/>
+      <c r="DZ1" s="42"/>
+      <c r="EA1" s="42"/>
+      <c r="EB1" s="42"/>
+      <c r="EC1" s="42"/>
+      <c r="ED1" s="42"/>
+      <c r="EE1" s="42"/>
+      <c r="EF1" s="42"/>
+      <c r="EG1" s="42"/>
+      <c r="EH1" s="42"/>
+      <c r="EI1" s="42"/>
+      <c r="EJ1" s="42"/>
+      <c r="EK1" s="42"/>
+      <c r="EL1" s="42"/>
+      <c r="EM1" s="42"/>
+      <c r="EN1" s="42"/>
+      <c r="EO1" s="42"/>
+      <c r="EP1" s="42"/>
+      <c r="EQ1" s="42"/>
+      <c r="ER1" s="42"/>
+      <c r="ES1" s="42"/>
+      <c r="ET1" s="42"/>
+      <c r="EU1" s="42"/>
+      <c r="EV1" s="42"/>
+      <c r="EW1" s="42"/>
+      <c r="EX1" s="42"/>
+      <c r="EY1" s="42"/>
+      <c r="EZ1" s="42"/>
+      <c r="FA1" s="42"/>
+      <c r="FB1" s="42"/>
+      <c r="FC1" s="42"/>
+      <c r="FD1" s="42"/>
+      <c r="FE1" s="42"/>
+      <c r="FF1" s="42"/>
+      <c r="FG1" s="42"/>
+      <c r="FH1" s="42"/>
+      <c r="FI1" s="42"/>
+      <c r="FJ1" s="42"/>
+      <c r="FK1" s="42"/>
+      <c r="FL1" s="42"/>
+      <c r="FM1" s="42"/>
+      <c r="FN1" s="42"/>
+      <c r="FO1" s="42"/>
+      <c r="FP1" s="42"/>
+      <c r="FQ1" s="42"/>
+      <c r="FR1" s="42"/>
+      <c r="FS1" s="42"/>
+      <c r="FT1" s="42"/>
+      <c r="FU1" s="42"/>
+      <c r="FV1" s="42"/>
+      <c r="FW1" s="42"/>
+      <c r="FX1" s="42"/>
+      <c r="FY1" s="42"/>
+      <c r="FZ1" s="42"/>
+      <c r="GA1" s="42"/>
+      <c r="GB1" s="42"/>
+      <c r="GC1" s="42"/>
+      <c r="GD1" s="42"/>
+      <c r="GE1" s="42"/>
+      <c r="GF1" s="42"/>
+      <c r="GG1" s="42"/>
+      <c r="GH1" s="42"/>
+      <c r="GI1" s="42"/>
+      <c r="GJ1" s="42"/>
+      <c r="GK1" s="42"/>
+      <c r="GL1" s="42"/>
+      <c r="GM1" s="42"/>
+      <c r="GN1" s="42"/>
+      <c r="GO1" s="42"/>
+      <c r="GP1" s="42"/>
+      <c r="GQ1" s="42"/>
+      <c r="GR1" s="42"/>
+      <c r="GS1" s="42"/>
+      <c r="GT1" s="42"/>
+      <c r="GU1" s="42"/>
+      <c r="GV1" s="42"/>
+      <c r="GW1" s="42"/>
+      <c r="GX1" s="42"/>
+      <c r="GY1" s="42"/>
+      <c r="GZ1" s="42"/>
+      <c r="HA1" s="42"/>
+      <c r="HB1" s="42"/>
+      <c r="HC1" s="42"/>
+      <c r="HD1" s="42"/>
+      <c r="HE1" s="42"/>
+      <c r="HF1" s="42"/>
+      <c r="HG1" s="42"/>
+      <c r="HH1" s="42"/>
+      <c r="HI1" s="42"/>
+      <c r="HJ1" s="42"/>
+      <c r="HK1" s="42"/>
+      <c r="HL1" s="42"/>
+      <c r="HM1" s="42"/>
+      <c r="HN1" s="42"/>
+      <c r="HO1" s="42"/>
+      <c r="HP1" s="42"/>
+      <c r="HQ1" s="42"/>
+      <c r="HR1" s="42"/>
+      <c r="HS1" s="42"/>
+      <c r="HT1" s="42"/>
+      <c r="HU1" s="42"/>
+      <c r="HV1" s="42"/>
+      <c r="HW1" s="42"/>
+      <c r="HX1" s="42"/>
+      <c r="HY1" s="42"/>
+      <c r="HZ1" s="42"/>
+      <c r="IA1" s="42"/>
+      <c r="IB1" s="42"/>
+      <c r="IC1" s="42"/>
+      <c r="ID1" s="42"/>
+      <c r="IE1" s="42"/>
+      <c r="IF1" s="42"/>
+      <c r="IG1" s="42"/>
+      <c r="IH1" s="42"/>
+      <c r="II1" s="42"/>
+      <c r="IJ1" s="42"/>
+      <c r="IK1" s="42"/>
+      <c r="IL1" s="42"/>
+      <c r="IM1" s="42"/>
+      <c r="IN1" s="42"/>
+      <c r="IO1" s="42"/>
+      <c r="IP1" s="42"/>
+      <c r="IQ1" s="42"/>
+      <c r="IR1" s="42"/>
+      <c r="IS1" s="42"/>
+      <c r="IT1" s="42"/>
+      <c r="IU1" s="42"/>
+      <c r="IV1" s="42"/>
+      <c r="IW1" s="42"/>
+      <c r="IX1" s="42"/>
+      <c r="IY1" s="42"/>
+      <c r="IZ1" s="42"/>
+      <c r="JA1" s="42"/>
+      <c r="JB1" s="42"/>
+      <c r="JC1" s="42"/>
+      <c r="JD1" s="42"/>
+      <c r="JE1" s="42"/>
+      <c r="JF1" s="42"/>
+      <c r="JG1" s="42"/>
+      <c r="JH1" s="42"/>
+      <c r="JI1" s="42"/>
+      <c r="JJ1" s="42"/>
+      <c r="JK1" s="42"/>
+      <c r="JL1" s="42"/>
+      <c r="JM1" s="42"/>
+      <c r="JN1" s="42"/>
+      <c r="JO1" s="42"/>
+      <c r="JP1" s="42"/>
+      <c r="JQ1" s="42"/>
+      <c r="JR1" s="42"/>
+      <c r="JS1" s="42"/>
+      <c r="JT1" s="42"/>
+      <c r="JU1" s="42"/>
+      <c r="JV1" s="42"/>
+      <c r="JW1" s="42"/>
+      <c r="JX1" s="42"/>
+      <c r="JY1" s="42"/>
+      <c r="JZ1" s="42"/>
+      <c r="KA1" s="42"/>
+      <c r="KB1" s="42"/>
+      <c r="KC1" s="42"/>
+      <c r="KD1" s="42"/>
+      <c r="KE1" s="42"/>
+      <c r="KF1" s="42"/>
+      <c r="KG1" s="42"/>
+      <c r="KH1" s="42"/>
+      <c r="KI1" s="42"/>
+      <c r="KJ1" s="42"/>
+      <c r="KK1" s="42"/>
+      <c r="KL1" s="42"/>
+      <c r="KM1" s="42"/>
+      <c r="KN1" s="42"/>
+      <c r="KO1" s="42"/>
+      <c r="KP1" s="42"/>
+      <c r="KQ1" s="42"/>
+      <c r="KR1" s="42"/>
+      <c r="KS1" s="42"/>
+      <c r="KT1" s="42"/>
+      <c r="KU1" s="42"/>
+      <c r="KV1" s="42"/>
+      <c r="KW1" s="42"/>
+      <c r="KX1" s="42"/>
+      <c r="KY1" s="42"/>
+      <c r="KZ1" s="42"/>
+      <c r="LA1" s="42"/>
+      <c r="LB1" s="42"/>
+      <c r="LC1" s="42"/>
+      <c r="LD1" s="42"/>
+      <c r="LE1" s="42"/>
+      <c r="LF1" s="42"/>
+      <c r="LG1" s="42"/>
+      <c r="LH1" s="42"/>
+      <c r="LI1" s="42"/>
+      <c r="LJ1" s="42"/>
+      <c r="LK1" s="42"/>
+      <c r="LL1" s="42"/>
+      <c r="LM1" s="42"/>
+      <c r="LN1" s="42"/>
+      <c r="LO1" s="42"/>
+      <c r="LP1" s="42"/>
+      <c r="LQ1" s="42"/>
+      <c r="LR1" s="42"/>
+      <c r="LS1" s="42"/>
+      <c r="LT1" s="42"/>
+      <c r="LU1" s="42"/>
+      <c r="LV1" s="42"/>
+      <c r="LW1" s="42"/>
+      <c r="LX1" s="42"/>
+      <c r="LY1" s="42"/>
+      <c r="LZ1" s="42"/>
+      <c r="MA1" s="42"/>
+      <c r="MB1" s="42"/>
+      <c r="MC1" s="42"/>
+      <c r="MD1" s="42"/>
+      <c r="ME1" s="42"/>
+      <c r="MF1" s="42"/>
+      <c r="MG1" s="42"/>
+      <c r="MH1" s="42"/>
+      <c r="MI1" s="42"/>
+      <c r="MJ1" s="42"/>
+      <c r="MK1" s="42"/>
+      <c r="ML1" s="42"/>
+      <c r="MM1" s="42"/>
+      <c r="MN1" s="42"/>
+      <c r="MO1" s="42"/>
+      <c r="MP1" s="42"/>
+      <c r="MQ1" s="42"/>
+      <c r="MR1" s="42"/>
+      <c r="MS1" s="42"/>
+      <c r="MT1" s="42"/>
+      <c r="MU1" s="42"/>
+      <c r="MV1" s="42"/>
+      <c r="MW1" s="42"/>
+      <c r="MX1" s="42"/>
+      <c r="MY1" s="42"/>
+      <c r="MZ1" s="42"/>
+      <c r="NA1" s="42"/>
+      <c r="NB1" s="42"/>
+      <c r="NC1" s="42"/>
+      <c r="ND1" s="42"/>
+      <c r="NE1" s="42"/>
+      <c r="NF1" s="42"/>
+      <c r="NG1" s="42"/>
+      <c r="NH1" s="42"/>
+      <c r="NI1" s="42"/>
+      <c r="NJ1" s="42"/>
+      <c r="NK1" s="42"/>
+      <c r="NL1" s="42"/>
+      <c r="NM1" s="42"/>
+      <c r="NN1" s="42"/>
+      <c r="NO1" s="42"/>
+      <c r="NP1" s="42"/>
+      <c r="NQ1" s="42"/>
+      <c r="NR1" s="42"/>
+      <c r="NS1" s="42"/>
+      <c r="NT1" s="42"/>
+      <c r="NU1" s="42"/>
+      <c r="NV1" s="42"/>
+      <c r="NW1" s="42"/>
+      <c r="NX1" s="42"/>
+      <c r="NY1" s="42"/>
+      <c r="NZ1" s="42"/>
+      <c r="OA1" s="42"/>
+      <c r="OB1" s="42"/>
+      <c r="OC1" s="42"/>
+      <c r="OD1" s="42"/>
+      <c r="OE1" s="42"/>
+      <c r="OF1" s="42"/>
+      <c r="OG1" s="42"/>
+      <c r="OH1" s="42"/>
+      <c r="OI1" s="42"/>
+      <c r="OJ1" s="42"/>
+      <c r="OK1" s="42"/>
+      <c r="OL1" s="42"/>
+      <c r="OM1" s="42"/>
+      <c r="ON1" s="42"/>
+      <c r="OO1" s="42"/>
+      <c r="OP1" s="42"/>
+      <c r="OQ1" s="42"/>
+      <c r="OR1" s="42"/>
+      <c r="OS1" s="42"/>
+      <c r="OT1" s="42"/>
+      <c r="OU1" s="42"/>
+      <c r="OV1" s="42"/>
+      <c r="OW1" s="42"/>
+      <c r="OX1" s="42"/>
+      <c r="OY1" s="42"/>
+      <c r="OZ1" s="42"/>
+      <c r="PA1" s="42"/>
+      <c r="PB1" s="42"/>
+      <c r="PC1" s="42"/>
+      <c r="PD1" s="42"/>
+      <c r="PE1" s="42"/>
+      <c r="PF1" s="42"/>
+      <c r="PG1" s="42"/>
+      <c r="PH1" s="42"/>
+      <c r="PI1" s="42"/>
+      <c r="PJ1" s="42"/>
+      <c r="PK1" s="42"/>
+      <c r="PL1" s="42"/>
+      <c r="PM1" s="42"/>
+      <c r="PN1" s="42"/>
+      <c r="PO1" s="42"/>
+      <c r="PP1" s="42"/>
+      <c r="PQ1" s="42"/>
+      <c r="PR1" s="42"/>
+      <c r="PS1" s="42"/>
+      <c r="PT1" s="42"/>
+    </row>
+    <row r="2" spans="1:436" s="25" customFormat="1" ht="75">
+      <c r="A2" s="55">
         <v>1</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="28">
         <v>4</v>
       </c>
-      <c r="C2" s="66">
+      <c r="C2" s="56">
         <v>4</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="69" t="s">
+      <c r="M2" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="47" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="75">
-      <c r="A3" s="49">
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63"/>
+      <c r="AU2" s="63"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="63"/>
+      <c r="BA2" s="63"/>
+      <c r="BB2" s="63"/>
+      <c r="BC2" s="63"/>
+      <c r="BD2" s="63"/>
+      <c r="BE2" s="63"/>
+      <c r="BF2" s="63"/>
+      <c r="BG2" s="63"/>
+      <c r="BH2" s="63"/>
+      <c r="BI2" s="63"/>
+      <c r="BJ2" s="63"/>
+      <c r="BK2" s="63"/>
+      <c r="BL2" s="63"/>
+      <c r="BM2" s="63"/>
+      <c r="BN2" s="63"/>
+      <c r="BO2" s="63"/>
+      <c r="BP2" s="63"/>
+      <c r="BQ2" s="63"/>
+      <c r="BR2" s="63"/>
+      <c r="BS2" s="63"/>
+      <c r="BT2" s="63"/>
+      <c r="BU2" s="63"/>
+      <c r="BV2" s="63"/>
+      <c r="BW2" s="63"/>
+      <c r="BX2" s="63"/>
+      <c r="BY2" s="63"/>
+      <c r="BZ2" s="63"/>
+      <c r="CA2" s="63"/>
+      <c r="CB2" s="63"/>
+      <c r="CC2" s="63"/>
+      <c r="CD2" s="63"/>
+      <c r="CE2" s="63"/>
+      <c r="CF2" s="63"/>
+      <c r="CG2" s="63"/>
+      <c r="CH2" s="63"/>
+      <c r="CI2" s="63"/>
+      <c r="CJ2" s="63"/>
+      <c r="CK2" s="63"/>
+      <c r="CL2" s="63"/>
+      <c r="CM2" s="63"/>
+      <c r="CN2" s="63"/>
+      <c r="CO2" s="63"/>
+      <c r="CP2" s="63"/>
+      <c r="CQ2" s="63"/>
+      <c r="CR2" s="63"/>
+      <c r="CS2" s="63"/>
+      <c r="CT2" s="63"/>
+      <c r="CU2" s="63"/>
+      <c r="CV2" s="63"/>
+      <c r="CW2" s="63"/>
+      <c r="CX2" s="63"/>
+      <c r="CY2" s="63"/>
+      <c r="CZ2" s="63"/>
+      <c r="DA2" s="63"/>
+      <c r="DB2" s="63"/>
+      <c r="DC2" s="63"/>
+      <c r="DD2" s="63"/>
+      <c r="DE2" s="63"/>
+      <c r="DF2" s="63"/>
+      <c r="DG2" s="63"/>
+      <c r="DH2" s="63"/>
+      <c r="DI2" s="63"/>
+      <c r="DJ2" s="63"/>
+      <c r="DK2" s="63"/>
+      <c r="DL2" s="63"/>
+      <c r="DM2" s="63"/>
+      <c r="DN2" s="63"/>
+      <c r="DO2" s="63"/>
+      <c r="DP2" s="63"/>
+      <c r="DQ2" s="63"/>
+      <c r="DR2" s="68"/>
+      <c r="DS2" s="62"/>
+      <c r="DT2" s="62"/>
+      <c r="DU2" s="62"/>
+      <c r="DV2" s="62"/>
+      <c r="DW2" s="62"/>
+      <c r="DX2" s="62"/>
+      <c r="DY2" s="62"/>
+      <c r="DZ2" s="62"/>
+      <c r="EA2" s="62"/>
+      <c r="EB2" s="62"/>
+      <c r="EC2" s="62"/>
+      <c r="ED2" s="62"/>
+      <c r="EE2" s="62"/>
+      <c r="EF2" s="62"/>
+      <c r="EG2" s="62"/>
+      <c r="EH2" s="62"/>
+      <c r="EI2" s="62"/>
+      <c r="EJ2" s="62"/>
+      <c r="EK2" s="62"/>
+      <c r="EL2" s="62"/>
+      <c r="EM2" s="62"/>
+      <c r="EN2" s="62"/>
+      <c r="EO2" s="62"/>
+      <c r="EP2" s="62"/>
+      <c r="EQ2" s="62"/>
+      <c r="ER2" s="62"/>
+      <c r="ES2" s="62"/>
+      <c r="ET2" s="62"/>
+      <c r="EU2" s="62"/>
+      <c r="EV2" s="62"/>
+      <c r="EW2" s="62"/>
+      <c r="EX2" s="62"/>
+      <c r="EY2" s="62"/>
+      <c r="EZ2" s="62"/>
+      <c r="FA2" s="62"/>
+      <c r="FB2" s="62"/>
+      <c r="FC2" s="62"/>
+      <c r="FD2" s="62"/>
+      <c r="FE2" s="62"/>
+      <c r="FF2" s="62"/>
+      <c r="FG2" s="62"/>
+      <c r="FH2" s="62"/>
+      <c r="FI2" s="62"/>
+      <c r="FJ2" s="62"/>
+      <c r="FK2" s="62"/>
+      <c r="FL2" s="62"/>
+      <c r="FM2" s="62"/>
+      <c r="FN2" s="62"/>
+      <c r="FO2" s="62"/>
+      <c r="FP2" s="62"/>
+      <c r="FQ2" s="62"/>
+      <c r="FR2" s="62"/>
+      <c r="FS2" s="62"/>
+      <c r="FT2" s="62"/>
+      <c r="FU2" s="62"/>
+      <c r="FV2" s="62"/>
+      <c r="FW2" s="62"/>
+      <c r="FX2" s="62"/>
+      <c r="FY2" s="62"/>
+      <c r="FZ2" s="62"/>
+      <c r="GA2" s="62"/>
+      <c r="GB2" s="62"/>
+      <c r="GC2" s="62"/>
+      <c r="GD2" s="62"/>
+      <c r="GE2" s="62"/>
+      <c r="GF2" s="62"/>
+      <c r="GG2" s="62"/>
+      <c r="GH2" s="62"/>
+      <c r="GI2" s="62"/>
+      <c r="GJ2" s="62"/>
+      <c r="GK2" s="62"/>
+      <c r="GL2" s="62"/>
+      <c r="GM2" s="62"/>
+      <c r="GN2" s="62"/>
+      <c r="GO2" s="62"/>
+      <c r="GP2" s="62"/>
+      <c r="GQ2" s="62"/>
+      <c r="GR2" s="62"/>
+      <c r="GS2" s="62"/>
+      <c r="GT2" s="62"/>
+      <c r="GU2" s="62"/>
+      <c r="GV2" s="62"/>
+      <c r="GW2" s="62"/>
+      <c r="GX2" s="62"/>
+      <c r="GY2" s="62"/>
+      <c r="GZ2" s="62"/>
+      <c r="HA2" s="62"/>
+      <c r="HB2" s="62"/>
+      <c r="HC2" s="62"/>
+      <c r="HD2" s="62"/>
+      <c r="HE2" s="62"/>
+      <c r="HF2" s="62"/>
+      <c r="HG2" s="62"/>
+      <c r="HH2" s="62"/>
+      <c r="HI2" s="62"/>
+      <c r="HJ2" s="62"/>
+      <c r="HK2" s="62"/>
+      <c r="HL2" s="62"/>
+      <c r="HM2" s="62"/>
+      <c r="HN2" s="62"/>
+      <c r="HO2" s="62"/>
+      <c r="HP2" s="62"/>
+      <c r="HQ2" s="62"/>
+      <c r="HR2" s="62"/>
+      <c r="HS2" s="62"/>
+      <c r="HT2" s="62"/>
+      <c r="HU2" s="62"/>
+      <c r="HV2" s="62"/>
+      <c r="HW2" s="62"/>
+      <c r="HX2" s="62"/>
+      <c r="HY2" s="62"/>
+      <c r="HZ2" s="62"/>
+      <c r="IA2" s="62"/>
+      <c r="IB2" s="62"/>
+      <c r="IC2" s="62"/>
+      <c r="ID2" s="62"/>
+      <c r="IE2" s="62"/>
+      <c r="IF2" s="62"/>
+      <c r="IG2" s="62"/>
+      <c r="IH2" s="62"/>
+      <c r="II2" s="62"/>
+      <c r="IJ2" s="62"/>
+      <c r="IK2" s="62"/>
+      <c r="IL2" s="62"/>
+      <c r="IM2" s="62"/>
+      <c r="IN2" s="62"/>
+      <c r="IO2" s="62"/>
+      <c r="IP2" s="62"/>
+      <c r="IQ2" s="62"/>
+      <c r="IR2" s="62"/>
+      <c r="IS2" s="62"/>
+      <c r="IT2" s="62"/>
+      <c r="IU2" s="62"/>
+      <c r="IV2" s="62"/>
+      <c r="IW2" s="62"/>
+      <c r="IX2" s="62"/>
+      <c r="IY2" s="62"/>
+      <c r="IZ2" s="62"/>
+      <c r="JA2" s="62"/>
+      <c r="JB2" s="62"/>
+      <c r="JC2" s="62"/>
+      <c r="JD2" s="62"/>
+      <c r="JE2" s="62"/>
+      <c r="JF2" s="62"/>
+      <c r="JG2" s="62"/>
+      <c r="JH2" s="62"/>
+      <c r="JI2" s="62"/>
+      <c r="JJ2" s="62"/>
+      <c r="JK2" s="62"/>
+      <c r="JL2" s="62"/>
+      <c r="JM2" s="62"/>
+      <c r="JN2" s="62"/>
+      <c r="JO2" s="62"/>
+      <c r="JP2" s="62"/>
+      <c r="JQ2" s="62"/>
+      <c r="JR2" s="62"/>
+      <c r="JS2" s="62"/>
+      <c r="JT2" s="62"/>
+      <c r="JU2" s="62"/>
+      <c r="JV2" s="62"/>
+      <c r="JW2" s="62"/>
+      <c r="JX2" s="62"/>
+      <c r="JY2" s="62"/>
+      <c r="JZ2" s="62"/>
+      <c r="KA2" s="62"/>
+      <c r="KB2" s="62"/>
+      <c r="KC2" s="62"/>
+      <c r="KD2" s="62"/>
+      <c r="KE2" s="62"/>
+      <c r="KF2" s="62"/>
+      <c r="KG2" s="62"/>
+      <c r="KH2" s="62"/>
+      <c r="KI2" s="62"/>
+      <c r="KJ2" s="62"/>
+      <c r="KK2" s="62"/>
+      <c r="KL2" s="62"/>
+      <c r="KM2" s="62"/>
+      <c r="KN2" s="62"/>
+      <c r="KO2" s="62"/>
+      <c r="KP2" s="62"/>
+      <c r="KQ2" s="62"/>
+      <c r="KR2" s="62"/>
+      <c r="KS2" s="62"/>
+      <c r="KT2" s="62"/>
+      <c r="KU2" s="62"/>
+      <c r="KV2" s="62"/>
+      <c r="KW2" s="62"/>
+      <c r="KX2" s="62"/>
+      <c r="KY2" s="62"/>
+      <c r="KZ2" s="62"/>
+      <c r="LA2" s="62"/>
+      <c r="LB2" s="62"/>
+      <c r="LC2" s="62"/>
+      <c r="LD2" s="62"/>
+      <c r="LE2" s="62"/>
+      <c r="LF2" s="62"/>
+      <c r="LG2" s="62"/>
+      <c r="LH2" s="62"/>
+      <c r="LI2" s="62"/>
+      <c r="LJ2" s="62"/>
+      <c r="LK2" s="62"/>
+      <c r="LL2" s="62"/>
+      <c r="LM2" s="62"/>
+      <c r="LN2" s="62"/>
+      <c r="LO2" s="62"/>
+      <c r="LP2" s="62"/>
+      <c r="LQ2" s="62"/>
+      <c r="LR2" s="62"/>
+      <c r="LS2" s="62"/>
+      <c r="LT2" s="62"/>
+      <c r="LU2" s="62"/>
+      <c r="LV2" s="62"/>
+      <c r="LW2" s="62"/>
+      <c r="LX2" s="62"/>
+      <c r="LY2" s="62"/>
+      <c r="LZ2" s="62"/>
+      <c r="MA2" s="62"/>
+      <c r="MB2" s="62"/>
+      <c r="MC2" s="62"/>
+      <c r="MD2" s="62"/>
+      <c r="ME2" s="62"/>
+      <c r="MF2" s="62"/>
+      <c r="MG2" s="62"/>
+      <c r="MH2" s="62"/>
+      <c r="MI2" s="62"/>
+      <c r="MJ2" s="62"/>
+      <c r="MK2" s="62"/>
+      <c r="ML2" s="62"/>
+      <c r="MM2" s="62"/>
+      <c r="MN2" s="62"/>
+      <c r="MO2" s="62"/>
+      <c r="MP2" s="62"/>
+      <c r="MQ2" s="62"/>
+      <c r="MR2" s="62"/>
+      <c r="MS2" s="62"/>
+      <c r="MT2" s="62"/>
+      <c r="MU2" s="62"/>
+      <c r="MV2" s="62"/>
+      <c r="MW2" s="62"/>
+      <c r="MX2" s="62"/>
+      <c r="MY2" s="62"/>
+      <c r="MZ2" s="62"/>
+      <c r="NA2" s="62"/>
+      <c r="NB2" s="62"/>
+      <c r="NC2" s="62"/>
+      <c r="ND2" s="62"/>
+      <c r="NE2" s="62"/>
+      <c r="NF2" s="62"/>
+      <c r="NG2" s="62"/>
+      <c r="NH2" s="62"/>
+      <c r="NI2" s="62"/>
+      <c r="NJ2" s="62"/>
+      <c r="NK2" s="62"/>
+      <c r="NL2" s="62"/>
+      <c r="NM2" s="62"/>
+      <c r="NN2" s="62"/>
+      <c r="NO2" s="62"/>
+      <c r="NP2" s="62"/>
+      <c r="NQ2" s="62"/>
+      <c r="NR2" s="62"/>
+      <c r="NS2" s="62"/>
+      <c r="NT2" s="62"/>
+      <c r="NU2" s="62"/>
+      <c r="NV2" s="62"/>
+      <c r="NW2" s="62"/>
+      <c r="NX2" s="62"/>
+      <c r="NY2" s="62"/>
+      <c r="NZ2" s="62"/>
+      <c r="OA2" s="62"/>
+      <c r="OB2" s="62"/>
+      <c r="OC2" s="62"/>
+      <c r="OD2" s="62"/>
+      <c r="OE2" s="62"/>
+      <c r="OF2" s="62"/>
+      <c r="OG2" s="62"/>
+      <c r="OH2" s="62"/>
+      <c r="OI2" s="62"/>
+      <c r="OJ2" s="62"/>
+      <c r="OK2" s="62"/>
+      <c r="OL2" s="62"/>
+      <c r="OM2" s="62"/>
+      <c r="ON2" s="62"/>
+      <c r="OO2" s="62"/>
+      <c r="OP2" s="62"/>
+      <c r="OQ2" s="62"/>
+      <c r="OR2" s="62"/>
+      <c r="OS2" s="62"/>
+      <c r="OT2" s="62"/>
+      <c r="OU2" s="62"/>
+      <c r="OV2" s="62"/>
+      <c r="OW2" s="62"/>
+      <c r="OX2" s="62"/>
+      <c r="OY2" s="62"/>
+      <c r="OZ2" s="62"/>
+      <c r="PA2" s="62"/>
+      <c r="PB2" s="62"/>
+      <c r="PC2" s="62"/>
+      <c r="PD2" s="62"/>
+      <c r="PE2" s="62"/>
+      <c r="PF2" s="62"/>
+      <c r="PG2" s="62"/>
+      <c r="PH2" s="62"/>
+      <c r="PI2" s="62"/>
+      <c r="PJ2" s="62"/>
+      <c r="PK2" s="62"/>
+      <c r="PL2" s="62"/>
+      <c r="PM2" s="62"/>
+      <c r="PN2" s="62"/>
+      <c r="PO2" s="62"/>
+      <c r="PP2" s="62"/>
+      <c r="PQ2" s="62"/>
+      <c r="PR2" s="62"/>
+      <c r="PS2" s="62"/>
+      <c r="PT2" s="62"/>
+    </row>
+    <row r="3" spans="1:436" ht="60">
+      <c r="A3" s="55">
         <v>2</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="28">
         <v>5</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="55">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="63" t="s">
+      <c r="L3" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="M3" s="63" t="s">
+      <c r="M3" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="N3" s="62" t="s">
+      <c r="N3" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="O3" s="65" t="s">
+      <c r="O3" s="33" t="s">
         <v>90</v>
       </c>
       <c r="P3" s="64"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-    </row>
-    <row r="4" spans="1:19" ht="75">
-      <c r="A4" s="49">
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="66"/>
+      <c r="AO3" s="66"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="66"/>
+      <c r="AS3" s="66"/>
+      <c r="AT3" s="66"/>
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="66"/>
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="66"/>
+      <c r="AZ3" s="66"/>
+      <c r="BA3" s="66"/>
+      <c r="BB3" s="66"/>
+      <c r="BC3" s="66"/>
+      <c r="BD3" s="66"/>
+      <c r="BE3" s="66"/>
+      <c r="BF3" s="66"/>
+      <c r="BG3" s="66"/>
+      <c r="BH3" s="66"/>
+      <c r="BI3" s="66"/>
+      <c r="BJ3" s="66"/>
+      <c r="BK3" s="66"/>
+      <c r="BL3" s="66"/>
+      <c r="BM3" s="66"/>
+      <c r="BN3" s="66"/>
+      <c r="BO3" s="66"/>
+      <c r="BP3" s="66"/>
+      <c r="BQ3" s="66"/>
+      <c r="BR3" s="66"/>
+      <c r="BS3" s="66"/>
+      <c r="BT3" s="66"/>
+      <c r="BU3" s="66"/>
+      <c r="BV3" s="66"/>
+      <c r="BW3" s="66"/>
+      <c r="BX3" s="66"/>
+      <c r="BY3" s="66"/>
+      <c r="BZ3" s="66"/>
+      <c r="CA3" s="66"/>
+      <c r="CB3" s="66"/>
+      <c r="CC3" s="66"/>
+      <c r="CD3" s="66"/>
+      <c r="CE3" s="66"/>
+      <c r="CF3" s="66"/>
+      <c r="CG3" s="66"/>
+      <c r="CH3" s="66"/>
+      <c r="CI3" s="66"/>
+      <c r="CJ3" s="66"/>
+      <c r="CK3" s="66"/>
+      <c r="CL3" s="66"/>
+      <c r="CM3" s="66"/>
+      <c r="CN3" s="66"/>
+      <c r="CO3" s="66"/>
+      <c r="CP3" s="66"/>
+      <c r="CQ3" s="66"/>
+      <c r="CR3" s="66"/>
+      <c r="CS3" s="66"/>
+      <c r="CT3" s="66"/>
+      <c r="CU3" s="66"/>
+      <c r="CV3" s="66"/>
+      <c r="CW3" s="66"/>
+      <c r="CX3" s="66"/>
+      <c r="CY3" s="66"/>
+      <c r="CZ3" s="66"/>
+      <c r="DA3" s="66"/>
+      <c r="DB3" s="66"/>
+      <c r="DC3" s="66"/>
+      <c r="DD3" s="66"/>
+      <c r="DE3" s="66"/>
+      <c r="DF3" s="66"/>
+      <c r="DG3" s="66"/>
+      <c r="DH3" s="66"/>
+      <c r="DI3" s="66"/>
+      <c r="DJ3" s="66"/>
+      <c r="DK3" s="66"/>
+      <c r="DL3" s="66"/>
+      <c r="DM3" s="66"/>
+      <c r="DN3" s="66"/>
+      <c r="DO3" s="66"/>
+      <c r="DP3" s="66"/>
+      <c r="DQ3" s="66"/>
+      <c r="DR3" s="69"/>
+      <c r="DS3" s="61"/>
+      <c r="DT3" s="61"/>
+      <c r="DU3" s="61"/>
+      <c r="DV3" s="61"/>
+      <c r="DW3" s="61"/>
+      <c r="DX3" s="61"/>
+      <c r="DY3" s="61"/>
+      <c r="DZ3" s="61"/>
+      <c r="EA3" s="61"/>
+      <c r="EB3" s="61"/>
+      <c r="EC3" s="61"/>
+      <c r="ED3" s="61"/>
+      <c r="EE3" s="61"/>
+      <c r="EF3" s="61"/>
+      <c r="EG3" s="61"/>
+      <c r="EH3" s="61"/>
+      <c r="EI3" s="61"/>
+      <c r="EJ3" s="61"/>
+      <c r="EK3" s="61"/>
+      <c r="EL3" s="61"/>
+      <c r="EM3" s="61"/>
+      <c r="EN3" s="61"/>
+      <c r="EO3" s="61"/>
+      <c r="EP3" s="61"/>
+      <c r="EQ3" s="61"/>
+      <c r="ER3" s="61"/>
+      <c r="ES3" s="61"/>
+      <c r="ET3" s="61"/>
+      <c r="EU3" s="61"/>
+      <c r="EV3" s="61"/>
+      <c r="EW3" s="61"/>
+      <c r="EX3" s="61"/>
+      <c r="EY3" s="61"/>
+      <c r="EZ3" s="61"/>
+      <c r="FA3" s="61"/>
+      <c r="FB3" s="61"/>
+      <c r="FC3" s="61"/>
+      <c r="FD3" s="61"/>
+      <c r="FE3" s="61"/>
+      <c r="FF3" s="61"/>
+      <c r="FG3" s="61"/>
+      <c r="FH3" s="61"/>
+      <c r="FI3" s="61"/>
+      <c r="FJ3" s="61"/>
+      <c r="FK3" s="61"/>
+      <c r="FL3" s="61"/>
+      <c r="FM3" s="61"/>
+      <c r="FN3" s="61"/>
+      <c r="FO3" s="61"/>
+      <c r="FP3" s="61"/>
+      <c r="FQ3" s="61"/>
+      <c r="FR3" s="61"/>
+      <c r="FS3" s="61"/>
+      <c r="FT3" s="61"/>
+      <c r="FU3" s="61"/>
+      <c r="FV3" s="61"/>
+      <c r="FW3" s="61"/>
+      <c r="FX3" s="61"/>
+      <c r="FY3" s="61"/>
+      <c r="FZ3" s="61"/>
+      <c r="GA3" s="61"/>
+      <c r="GB3" s="61"/>
+      <c r="GC3" s="61"/>
+      <c r="GD3" s="61"/>
+      <c r="GE3" s="61"/>
+      <c r="GF3" s="61"/>
+      <c r="GG3" s="61"/>
+      <c r="GH3" s="61"/>
+      <c r="GI3" s="61"/>
+      <c r="GJ3" s="61"/>
+      <c r="GK3" s="61"/>
+      <c r="GL3" s="61"/>
+      <c r="GM3" s="61"/>
+      <c r="GN3" s="61"/>
+      <c r="GO3" s="61"/>
+      <c r="GP3" s="61"/>
+      <c r="GQ3" s="61"/>
+      <c r="GR3" s="61"/>
+      <c r="GS3" s="61"/>
+      <c r="GT3" s="61"/>
+      <c r="GU3" s="61"/>
+      <c r="GV3" s="61"/>
+      <c r="GW3" s="61"/>
+      <c r="GX3" s="61"/>
+      <c r="GY3" s="61"/>
+      <c r="GZ3" s="61"/>
+      <c r="HA3" s="61"/>
+      <c r="HB3" s="61"/>
+      <c r="HC3" s="61"/>
+      <c r="HD3" s="61"/>
+      <c r="HE3" s="61"/>
+      <c r="HF3" s="61"/>
+      <c r="HG3" s="61"/>
+      <c r="HH3" s="61"/>
+      <c r="HI3" s="61"/>
+      <c r="HJ3" s="61"/>
+      <c r="HK3" s="61"/>
+      <c r="HL3" s="61"/>
+      <c r="HM3" s="61"/>
+      <c r="HN3" s="61"/>
+      <c r="HO3" s="61"/>
+      <c r="HP3" s="61"/>
+      <c r="HQ3" s="61"/>
+      <c r="HR3" s="61"/>
+      <c r="HS3" s="61"/>
+      <c r="HT3" s="61"/>
+      <c r="HU3" s="61"/>
+      <c r="HV3" s="61"/>
+      <c r="HW3" s="61"/>
+      <c r="HX3" s="61"/>
+      <c r="HY3" s="61"/>
+      <c r="HZ3" s="61"/>
+      <c r="IA3" s="61"/>
+      <c r="IB3" s="61"/>
+      <c r="IC3" s="61"/>
+      <c r="ID3" s="61"/>
+      <c r="IE3" s="61"/>
+      <c r="IF3" s="61"/>
+      <c r="IG3" s="61"/>
+      <c r="IH3" s="61"/>
+      <c r="II3" s="61"/>
+      <c r="IJ3" s="61"/>
+      <c r="IK3" s="61"/>
+      <c r="IL3" s="61"/>
+      <c r="IM3" s="61"/>
+      <c r="IN3" s="61"/>
+      <c r="IO3" s="61"/>
+      <c r="IP3" s="61"/>
+      <c r="IQ3" s="61"/>
+      <c r="IR3" s="61"/>
+      <c r="IS3" s="61"/>
+      <c r="IT3" s="61"/>
+      <c r="IU3" s="61"/>
+      <c r="IV3" s="61"/>
+      <c r="IW3" s="61"/>
+      <c r="IX3" s="61"/>
+      <c r="IY3" s="61"/>
+      <c r="IZ3" s="61"/>
+      <c r="JA3" s="61"/>
+      <c r="JB3" s="61"/>
+      <c r="JC3" s="61"/>
+      <c r="JD3" s="61"/>
+      <c r="JE3" s="61"/>
+      <c r="JF3" s="61"/>
+      <c r="JG3" s="61"/>
+      <c r="JH3" s="61"/>
+      <c r="JI3" s="61"/>
+      <c r="JJ3" s="61"/>
+      <c r="JK3" s="61"/>
+      <c r="JL3" s="61"/>
+      <c r="JM3" s="61"/>
+      <c r="JN3" s="61"/>
+      <c r="JO3" s="61"/>
+      <c r="JP3" s="61"/>
+      <c r="JQ3" s="61"/>
+      <c r="JR3" s="61"/>
+      <c r="JS3" s="61"/>
+      <c r="JT3" s="61"/>
+      <c r="JU3" s="61"/>
+      <c r="JV3" s="61"/>
+      <c r="JW3" s="61"/>
+      <c r="JX3" s="61"/>
+      <c r="JY3" s="61"/>
+      <c r="JZ3" s="61"/>
+      <c r="KA3" s="61"/>
+      <c r="KB3" s="61"/>
+      <c r="KC3" s="61"/>
+      <c r="KD3" s="61"/>
+      <c r="KE3" s="61"/>
+      <c r="KF3" s="61"/>
+      <c r="KG3" s="61"/>
+      <c r="KH3" s="61"/>
+      <c r="KI3" s="61"/>
+      <c r="KJ3" s="61"/>
+      <c r="KK3" s="61"/>
+      <c r="KL3" s="61"/>
+      <c r="KM3" s="61"/>
+      <c r="KN3" s="61"/>
+      <c r="KO3" s="61"/>
+      <c r="KP3" s="61"/>
+      <c r="KQ3" s="61"/>
+      <c r="KR3" s="61"/>
+      <c r="KS3" s="61"/>
+      <c r="KT3" s="61"/>
+      <c r="KU3" s="61"/>
+      <c r="KV3" s="61"/>
+      <c r="KW3" s="61"/>
+      <c r="KX3" s="61"/>
+      <c r="KY3" s="61"/>
+      <c r="KZ3" s="61"/>
+      <c r="LA3" s="61"/>
+      <c r="LB3" s="61"/>
+      <c r="LC3" s="61"/>
+      <c r="LD3" s="61"/>
+      <c r="LE3" s="61"/>
+      <c r="LF3" s="61"/>
+      <c r="LG3" s="61"/>
+      <c r="LH3" s="61"/>
+      <c r="LI3" s="61"/>
+      <c r="LJ3" s="61"/>
+      <c r="LK3" s="61"/>
+      <c r="LL3" s="61"/>
+      <c r="LM3" s="61"/>
+      <c r="LN3" s="61"/>
+      <c r="LO3" s="61"/>
+      <c r="LP3" s="61"/>
+      <c r="LQ3" s="61"/>
+      <c r="LR3" s="61"/>
+      <c r="LS3" s="61"/>
+      <c r="LT3" s="61"/>
+      <c r="LU3" s="61"/>
+      <c r="LV3" s="61"/>
+      <c r="LW3" s="61"/>
+      <c r="LX3" s="61"/>
+      <c r="LY3" s="61"/>
+      <c r="LZ3" s="61"/>
+      <c r="MA3" s="61"/>
+      <c r="MB3" s="61"/>
+      <c r="MC3" s="61"/>
+      <c r="MD3" s="61"/>
+      <c r="ME3" s="61"/>
+      <c r="MF3" s="61"/>
+      <c r="MG3" s="61"/>
+      <c r="MH3" s="61"/>
+      <c r="MI3" s="61"/>
+      <c r="MJ3" s="61"/>
+      <c r="MK3" s="61"/>
+      <c r="ML3" s="61"/>
+      <c r="MM3" s="61"/>
+      <c r="MN3" s="61"/>
+      <c r="MO3" s="61"/>
+      <c r="MP3" s="61"/>
+      <c r="MQ3" s="61"/>
+      <c r="MR3" s="61"/>
+      <c r="MS3" s="61"/>
+      <c r="MT3" s="61"/>
+      <c r="MU3" s="61"/>
+      <c r="MV3" s="61"/>
+      <c r="MW3" s="61"/>
+      <c r="MX3" s="61"/>
+      <c r="MY3" s="61"/>
+      <c r="MZ3" s="61"/>
+      <c r="NA3" s="61"/>
+      <c r="NB3" s="61"/>
+      <c r="NC3" s="61"/>
+      <c r="ND3" s="61"/>
+      <c r="NE3" s="61"/>
+      <c r="NF3" s="61"/>
+      <c r="NG3" s="61"/>
+      <c r="NH3" s="61"/>
+      <c r="NI3" s="61"/>
+      <c r="NJ3" s="61"/>
+      <c r="NK3" s="61"/>
+      <c r="NL3" s="61"/>
+      <c r="NM3" s="61"/>
+      <c r="NN3" s="61"/>
+      <c r="NO3" s="61"/>
+      <c r="NP3" s="61"/>
+      <c r="NQ3" s="61"/>
+      <c r="NR3" s="61"/>
+      <c r="NS3" s="61"/>
+      <c r="NT3" s="61"/>
+      <c r="NU3" s="61"/>
+      <c r="NV3" s="61"/>
+      <c r="NW3" s="61"/>
+      <c r="NX3" s="61"/>
+      <c r="NY3" s="61"/>
+      <c r="NZ3" s="61"/>
+      <c r="OA3" s="61"/>
+      <c r="OB3" s="61"/>
+      <c r="OC3" s="61"/>
+      <c r="OD3" s="61"/>
+      <c r="OE3" s="61"/>
+      <c r="OF3" s="61"/>
+      <c r="OG3" s="61"/>
+      <c r="OH3" s="61"/>
+      <c r="OI3" s="61"/>
+      <c r="OJ3" s="61"/>
+      <c r="OK3" s="61"/>
+      <c r="OL3" s="61"/>
+      <c r="OM3" s="61"/>
+      <c r="ON3" s="61"/>
+      <c r="OO3" s="61"/>
+      <c r="OP3" s="61"/>
+      <c r="OQ3" s="61"/>
+      <c r="OR3" s="61"/>
+      <c r="OS3" s="61"/>
+      <c r="OT3" s="61"/>
+      <c r="OU3" s="61"/>
+      <c r="OV3" s="61"/>
+      <c r="OW3" s="61"/>
+      <c r="OX3" s="61"/>
+      <c r="OY3" s="61"/>
+      <c r="OZ3" s="61"/>
+      <c r="PA3" s="61"/>
+      <c r="PB3" s="61"/>
+      <c r="PC3" s="61"/>
+      <c r="PD3" s="61"/>
+      <c r="PE3" s="61"/>
+      <c r="PF3" s="61"/>
+      <c r="PG3" s="61"/>
+      <c r="PH3" s="61"/>
+      <c r="PI3" s="61"/>
+      <c r="PJ3" s="61"/>
+      <c r="PK3" s="61"/>
+      <c r="PL3" s="61"/>
+      <c r="PM3" s="61"/>
+      <c r="PN3" s="61"/>
+      <c r="PO3" s="61"/>
+      <c r="PP3" s="61"/>
+      <c r="PQ3" s="61"/>
+      <c r="PR3" s="61"/>
+      <c r="PS3" s="61"/>
+      <c r="PT3" s="61"/>
+    </row>
+    <row r="4" spans="1:436" ht="75">
+      <c r="A4" s="55">
         <v>3</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="28">
         <v>6</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="55">
         <v>4.2</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="I4" s="68" t="s">
+      <c r="I4" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="68" t="s">
+      <c r="L4" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="47" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="75">
-      <c r="A5" s="49">
+    <row r="5" spans="1:436" ht="75">
+      <c r="A5" s="55">
         <v>4</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="28">
         <v>7</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="55">
         <v>4.3</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="I5" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="33" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="45">
-      <c r="A6" s="49">
+    <row r="6" spans="1:436" ht="45">
+      <c r="A6" s="55">
         <v>5</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="28">
         <v>10</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="55">
         <v>5.2</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="L6" s="68" t="s">
+      <c r="L6" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="O6" s="68" t="s">
+      <c r="O6" s="47" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="30">
-      <c r="A7" s="49">
+    <row r="7" spans="1:436" ht="45">
+      <c r="A7" s="55">
         <v>6</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="28">
         <v>13</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="55">
         <v>6.1</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="I7" s="71" t="s">
+      <c r="I7" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="68" t="s">
+      <c r="L7" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39" t="s">
+      <c r="M7" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="N7" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="O7" s="33" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="75">
-      <c r="A8" s="49">
+    <row r="8" spans="1:436" ht="45">
+      <c r="A8" s="55">
         <v>7</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="28">
+        <v>17</v>
+      </c>
+      <c r="C8" s="55">
+        <v>6.3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="N8" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" s="53" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:436" ht="75">
+      <c r="A9" s="55">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28">
         <v>19</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C9" s="55">
         <v>6.5</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D9" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E9" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F9" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51" t="s">
+      <c r="G9" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="J9" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="K8" s="51" t="s">
+      <c r="K9" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="50" t="s">
+      <c r="L9" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="N9" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="51" t="s">
+      <c r="O9" s="52" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="45">
-      <c r="A9" s="49">
-        <v>8</v>
-      </c>
-      <c r="B9" s="25">
+    <row r="10" spans="1:436" ht="60">
+      <c r="A10" s="55">
+        <v>9</v>
+      </c>
+      <c r="B10" s="28">
+        <v>27</v>
+      </c>
+      <c r="C10" s="28">
+        <v>7.6</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="M10" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="N10" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:436" ht="60">
+      <c r="A11" s="55">
+        <v>10</v>
+      </c>
+      <c r="B11" s="28">
         <v>33</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C11" s="55">
         <v>8.5</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D11" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E11" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="50" t="s">
+      <c r="F11" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="J11" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="K9" s="51" t="s">
+      <c r="K11" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="50" t="s">
+      <c r="L11" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="M11" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="N11" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="O9" s="51" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15">
-      <c r="A10" s="49">
+      <c r="O11" s="53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:436" ht="60">
+      <c r="A12" s="55">
+        <v>11</v>
+      </c>
+      <c r="B12" s="55">
+        <v>34</v>
+      </c>
+      <c r="C12" s="55">
+        <v>8.6</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="M12" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="N12" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" s="53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:436" ht="60">
+      <c r="A13" s="55">
+        <v>12</v>
+      </c>
+      <c r="B13" s="28">
+        <v>35</v>
+      </c>
+      <c r="C13" s="55">
         <v>9</v>
       </c>
-      <c r="B10" s="25">
-        <v>35</v>
-      </c>
-      <c r="C10" s="49">
-        <v>9</v>
-      </c>
-      <c r="D10" s="50" t="s">
+      <c r="D13" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E13" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F13" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51" t="s">
+      <c r="G13" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="I13" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="J13" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="K10" s="51" t="s">
+      <c r="K13" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="50" t="s">
+      <c r="L13" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="M13" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="N13" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="O10" s="50"/>
-    </row>
-    <row r="11" spans="1:19" ht="30">
-      <c r="A11" s="49">
+      <c r="O13" s="57" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:436" ht="45">
+      <c r="A14" s="55">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28">
+        <v>36</v>
+      </c>
+      <c r="C14" s="55">
+        <v>9.1</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="M14" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="N14" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="57" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:436" ht="45">
+      <c r="A15" s="55">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28">
+        <v>37</v>
+      </c>
+      <c r="C15" s="55">
         <v>10</v>
       </c>
-      <c r="B11" s="25">
-        <v>36</v>
-      </c>
-      <c r="C11" s="49">
-        <v>9.1</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="F11" s="50" t="s">
+      <c r="D15" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="K11" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="50" t="s">
+      <c r="G15" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="I15" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="M15" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="N15" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="O11" s="50"/>
-    </row>
-    <row r="12" spans="1:19" ht="45">
-      <c r="A12" s="49">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25">
-        <v>37</v>
-      </c>
-      <c r="C12" s="49">
-        <v>10</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12" s="50" t="s">
+      <c r="O15" s="53" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:436" ht="60">
+      <c r="A16" s="55">
+        <v>15</v>
+      </c>
+      <c r="B16" s="28">
+        <v>44</v>
+      </c>
+      <c r="C16" s="55">
+        <v>13</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="K12" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51" t="s">
+      <c r="G16" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="J16" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="L16" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="M16" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="N16" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="O12" s="50"/>
-    </row>
-    <row r="13" spans="1:19" ht="30">
-      <c r="A13" s="49">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25">
-        <v>44</v>
-      </c>
-      <c r="C13" s="49">
-        <v>13</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="F13" s="50" t="s">
+      <c r="O16" s="53" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="60">
+      <c r="A17" s="55">
+        <v>16</v>
+      </c>
+      <c r="B17" s="28">
+        <v>48</v>
+      </c>
+      <c r="C17" s="6">
+        <v>16</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="K13" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="50" t="s">
+      <c r="G17" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="N17" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="O13" s="51" t="s">
-        <v>185</v>
+      <c r="O17" s="42" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/project_demoblaze.xlsx
+++ b/project_demoblaze.xlsx
@@ -1473,7 +1473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -2166,11 +2166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2206,7 +2205,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" hidden="1">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="14" t="s">
         <v>51</v>
       </c>
@@ -2221,7 +2220,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" hidden="1">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="14" t="s">
         <v>53</v>
       </c>
@@ -2238,7 +2237,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" hidden="1">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -2251,7 +2250,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:9" ht="47.25" hidden="1">
+    <row r="5" spans="1:9" ht="47.25">
       <c r="A5" s="14" t="s">
         <v>56</v>
       </c>
@@ -2266,7 +2265,7 @@
       <c r="H5" s="15"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" hidden="1">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="14" t="s">
         <v>58</v>
       </c>
@@ -2281,7 +2280,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" hidden="1">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="14" t="s">
         <v>59</v>
       </c>
@@ -2294,7 +2293,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" hidden="1">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="26" t="s">
         <v>60</v>
       </c>
@@ -2323,7 +2322,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" hidden="1">
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="28">
         <v>1</v>
       </c>
@@ -2350,7 +2349,7 @@
       </c>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:9" ht="45" hidden="1">
+    <row r="10" spans="1:9" ht="45">
       <c r="A10" s="28">
         <v>2</v>
       </c>
@@ -2379,7 +2378,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45" hidden="1">
+    <row r="11" spans="1:9" ht="45">
       <c r="A11" s="28">
         <v>3</v>
       </c>
@@ -2524,7 +2523,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" hidden="1">
+    <row r="16" spans="1:9" ht="30">
       <c r="A16" s="28">
         <v>8</v>
       </c>
@@ -2553,7 +2552,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="60" hidden="1">
+    <row r="17" spans="1:9" ht="60">
       <c r="A17" s="28">
         <v>9</v>
       </c>
@@ -2611,7 +2610,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="60" hidden="1">
+    <row r="19" spans="1:9" ht="60">
       <c r="A19" s="28">
         <v>11</v>
       </c>
@@ -2640,7 +2639,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="60" hidden="1">
+    <row r="20" spans="1:9" ht="60">
       <c r="A20" s="28">
         <v>12</v>
       </c>
@@ -2698,7 +2697,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30" hidden="1">
+    <row r="22" spans="1:9" ht="30">
       <c r="A22" s="28">
         <v>14</v>
       </c>
@@ -2727,7 +2726,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1">
+    <row r="23" spans="1:9">
       <c r="A23" s="28">
         <v>15</v>
       </c>
@@ -2754,7 +2753,7 @@
       </c>
       <c r="I23" s="36"/>
     </row>
-    <row r="24" spans="1:9" ht="90" hidden="1">
+    <row r="24" spans="1:9" ht="90">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -2810,7 +2809,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="90" hidden="1">
+    <row r="26" spans="1:9" ht="90">
       <c r="A26" s="28">
         <v>18</v>
       </c>
@@ -2866,7 +2865,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="150" hidden="1">
+    <row r="28" spans="1:9" ht="150">
       <c r="A28" s="28">
         <v>20</v>
       </c>
@@ -2895,7 +2894,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="75" hidden="1">
+    <row r="29" spans="1:9" ht="75">
       <c r="A29" s="28">
         <v>21</v>
       </c>
@@ -2924,7 +2923,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="75" hidden="1">
+    <row r="30" spans="1:9" ht="75">
       <c r="A30" s="28">
         <v>22</v>
       </c>
@@ -2953,7 +2952,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="60" hidden="1">
+    <row r="31" spans="1:9" ht="60">
       <c r="A31" s="28">
         <v>23</v>
       </c>
@@ -2982,7 +2981,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="75" hidden="1">
+    <row r="32" spans="1:9" ht="75">
       <c r="A32" s="28">
         <v>24</v>
       </c>
@@ -3011,7 +3010,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="60" hidden="1">
+    <row r="33" spans="1:9" ht="60">
       <c r="A33" s="28">
         <v>25</v>
       </c>
@@ -3040,7 +3039,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="60" hidden="1">
+    <row r="34" spans="1:9" ht="60">
       <c r="A34" s="28">
         <v>26</v>
       </c>
@@ -3098,7 +3097,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="75" hidden="1">
+    <row r="36" spans="1:9" ht="75">
       <c r="A36" s="28">
         <v>28</v>
       </c>
@@ -3127,7 +3126,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="75" hidden="1">
+    <row r="37" spans="1:9" ht="75">
       <c r="A37" s="28">
         <v>29</v>
       </c>
@@ -3156,7 +3155,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="60" hidden="1">
+    <row r="38" spans="1:9" ht="60">
       <c r="A38" s="28">
         <v>30</v>
       </c>
@@ -3185,7 +3184,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="75" hidden="1">
+    <row r="39" spans="1:9" ht="75">
       <c r="A39" s="28">
         <v>31</v>
       </c>
@@ -3214,7 +3213,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="60" hidden="1">
+    <row r="40" spans="1:9" ht="60">
       <c r="A40" s="28">
         <v>32</v>
       </c>
@@ -3382,7 +3381,7 @@
       </c>
       <c r="I45" s="38"/>
     </row>
-    <row r="46" spans="1:9" ht="45" hidden="1">
+    <row r="46" spans="1:9" ht="45">
       <c r="A46" s="28">
         <v>38</v>
       </c>
@@ -3409,7 +3408,7 @@
       </c>
       <c r="I46" s="37"/>
     </row>
-    <row r="47" spans="1:9" ht="45" hidden="1">
+    <row r="47" spans="1:9" ht="45">
       <c r="A47" s="28">
         <v>39</v>
       </c>
@@ -3436,7 +3435,7 @@
       </c>
       <c r="I47" s="37"/>
     </row>
-    <row r="48" spans="1:9" ht="45" hidden="1">
+    <row r="48" spans="1:9" ht="45">
       <c r="A48" s="28">
         <v>40</v>
       </c>
@@ -3463,7 +3462,7 @@
       </c>
       <c r="I48" s="37"/>
     </row>
-    <row r="49" spans="1:9" ht="75" hidden="1">
+    <row r="49" spans="1:9" ht="75">
       <c r="A49" s="28">
         <v>41</v>
       </c>
@@ -3490,7 +3489,7 @@
       </c>
       <c r="I49" s="37"/>
     </row>
-    <row r="50" spans="1:9" ht="30" hidden="1">
+    <row r="50" spans="1:9" ht="30">
       <c r="A50" s="28">
         <v>42</v>
       </c>
@@ -3517,7 +3516,7 @@
       </c>
       <c r="I50" s="37"/>
     </row>
-    <row r="51" spans="1:9" ht="45" hidden="1">
+    <row r="51" spans="1:9" ht="45">
       <c r="A51" s="28">
         <v>43</v>
       </c>
@@ -3575,7 +3574,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="30" hidden="1">
+    <row r="53" spans="1:9" ht="30">
       <c r="A53" s="28">
         <v>45</v>
       </c>
@@ -3602,7 +3601,7 @@
       </c>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="1:9" hidden="1">
+    <row r="54" spans="1:9">
       <c r="A54" s="28">
         <v>46</v>
       </c>
@@ -3631,7 +3630,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1">
+    <row r="55" spans="1:9">
       <c r="A55" s="28">
         <v>47</v>
       </c>
@@ -3687,7 +3686,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="30" hidden="1">
+    <row r="57" spans="1:9" ht="30">
       <c r="A57" s="28">
         <v>49</v>
       </c>
@@ -3714,7 +3713,7 @@
       </c>
       <c r="I57" s="42"/>
     </row>
-    <row r="58" spans="1:9" hidden="1">
+    <row r="58" spans="1:9">
       <c r="A58" s="28">
         <v>50</v>
       </c>
@@ -3867,11 +3866,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I58">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="fail"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="7"/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3882,8 +3877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:PT17"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="K11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="15"/>
@@ -4372,7 +4367,7 @@
       <c r="PS1" s="42"/>
       <c r="PT1" s="42"/>
     </row>
-    <row r="2" spans="1:436" s="25" customFormat="1" ht="75">
+    <row r="2" spans="1:436" s="25" customFormat="1" ht="60">
       <c r="A2" s="55">
         <v>1</v>
       </c>
@@ -5308,7 +5303,7 @@
       <c r="PS3" s="61"/>
       <c r="PT3" s="61"/>
     </row>
-    <row r="4" spans="1:436" ht="75">
+    <row r="4" spans="1:436" ht="60">
       <c r="A4" s="55">
         <v>3</v>
       </c>
@@ -5355,7 +5350,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:436" ht="75">
+    <row r="5" spans="1:436" ht="60">
       <c r="A5" s="55">
         <v>4</v>
       </c>
@@ -5543,7 +5538,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:436" ht="75">
+    <row r="9" spans="1:436" ht="60">
       <c r="A9" s="55">
         <v>8</v>
       </c>
@@ -5590,7 +5585,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:436" ht="60">
+    <row r="10" spans="1:436" ht="45">
       <c r="A10" s="55">
         <v>9</v>
       </c>
@@ -5684,7 +5679,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:436" ht="60">
+    <row r="12" spans="1:436" ht="45">
       <c r="A12" s="55">
         <v>11</v>
       </c>
@@ -5731,7 +5726,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:436" ht="60">
+    <row r="13" spans="1:436" ht="45">
       <c r="A13" s="55">
         <v>12</v>
       </c>
@@ -5919,7 +5914,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="60">
+    <row r="17" spans="1:15" ht="45">
       <c r="A17" s="55">
         <v>16</v>
       </c>
